--- a/Functional_Testing/TestDatas/ProviderRegisterDatas.xlsx
+++ b/Functional_Testing/TestDatas/ProviderRegisterDatas.xlsx
@@ -3,23 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId2"/>
-    <sheet name="Organization Details" sheetId="2" r:id="rId3"/>
-    <sheet name="Services Details" sheetId="3" r:id="rId4"/>
+    <sheet name="Partner Details" sheetId="6" r:id="rId1"/>
+    <sheet name="Organization Details" sheetId="2" r:id="rId2"/>
+    <sheet name="Services Details" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
   <si>
     <t>FNAME</t>
   </si>
@@ -322,9 +321,6 @@
     <t>+46</t>
   </si>
   <si>
-    <t>Org Pin Type</t>
-  </si>
-  <si>
     <t>TCS</t>
   </si>
   <si>
@@ -352,9 +348,6 @@
     <t>Macao</t>
   </si>
   <si>
-    <t>hfukr</t>
-  </si>
-  <si>
     <t>gh</t>
   </si>
   <si>
@@ -370,12 +363,6 @@
     <t>Sh</t>
   </si>
   <si>
-    <t>Cuba</t>
-  </si>
-  <si>
-    <t>kjdfh</t>
-  </si>
-  <si>
     <t>hdghd</t>
   </si>
   <si>
@@ -391,21 +378,12 @@
     <t>Mcity</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>jydj</t>
   </si>
   <si>
     <t>ggnrgn</t>
   </si>
   <si>
-    <t>fgn</t>
-  </si>
-  <si>
-    <t>hf</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
@@ -427,15 +405,6 @@
     <t>hgowhg</t>
   </si>
   <si>
-    <t>SerType</t>
-  </si>
-  <si>
-    <t>SerExpert</t>
-  </si>
-  <si>
-    <t>Mutual Funds,Insurance</t>
-  </si>
-  <si>
     <t>Consultant,Auditor</t>
   </si>
   <si>
@@ -445,73 +414,116 @@
     <t>Status</t>
   </si>
   <si>
-    <t>+8</t>
-  </si>
-  <si>
-    <t>1234567891</t>
-  </si>
-  <si>
-    <t>+9</t>
-  </si>
-  <si>
-    <t>1234567892</t>
-  </si>
-  <si>
-    <t>+10</t>
-  </si>
-  <si>
-    <t>1234567893</t>
-  </si>
-  <si>
-    <t>+11</t>
-  </si>
-  <si>
-    <t>1234567894</t>
-  </si>
-  <si>
-    <t>Wi</t>
-  </si>
-  <si>
     <t>fre</t>
   </si>
   <si>
-    <t>Indvual</t>
-  </si>
-  <si>
-    <t>TDS,Legal</t>
-  </si>
-  <si>
-    <t>GST Service,Tax Returns</t>
-  </si>
-  <si>
-    <t>Tax Retrns,Legal</t>
-  </si>
-  <si>
-    <t>Tax Returns,TDS</t>
-  </si>
-  <si>
-    <t>Tax Returns,Trademardk</t>
-  </si>
-  <si>
-    <t>Business Incorporation,GST Services</t>
-  </si>
-  <si>
-    <t>Banking,Stock Market</t>
-  </si>
-  <si>
-    <t>Insurance,Protofolio Management</t>
-  </si>
-  <si>
-    <t>Auditor,Startup Expert</t>
-  </si>
-  <si>
     <t>Legal Compliance,CA(Certified)</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Yo</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Mutual Funds,Banking</t>
+  </si>
+  <si>
+    <t>Insurance,Stock Market,Wealth Management</t>
+  </si>
+  <si>
+    <t>Treasury/Debt Instruments</t>
+  </si>
+  <si>
+    <t>Auditor,Startup Expert,Company Secretary</t>
+  </si>
+  <si>
+    <t>Auditor,Legal Compliance</t>
+  </si>
+  <si>
+    <t>Advisory tax saving,TDS,salaried Individuals</t>
+  </si>
+  <si>
+    <t>Tax returns,Legal Drafting,Ask an expert</t>
+  </si>
+  <si>
+    <t>Tax Returns,Document Review</t>
+  </si>
+  <si>
+    <t>Capital Gains,Miscelleneous Services,Challan 26QB</t>
+  </si>
+  <si>
+    <t>LTCG filing and advisory</t>
+  </si>
+  <si>
+    <t>GST Service,Tax Returns,Change company name,Provident Fund</t>
+  </si>
+  <si>
+    <t>GST filing,Goverment Registration,Trademark renewal,PLC registration</t>
+  </si>
+  <si>
+    <t>One person company,E-way bill service,Trademark registration</t>
+  </si>
+  <si>
+    <t>Business Incorporation,Payroll Service,Company and LLP returns</t>
+  </si>
+  <si>
+    <t>Business Tax returns,Launch Your Startup</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>Reset</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Tax/Audit Consulting,Portfolio Management</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>avg2.jpg</t>
+  </si>
+  <si>
+    <t>avg3.jpg</t>
+  </si>
+  <si>
+    <t>avg4.jpg</t>
+  </si>
+  <si>
+    <t>avg5.jpg</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Capital Restructuring,Professional Advisory</t>
+  </si>
+  <si>
+    <t>CA(Practioner),TAX Consultant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -614,7 +626,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -641,10 +653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -935,374 +944,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S6"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:Q6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="3" customFormat="1" ht="45">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>852</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="3">
-        <v>25000</v>
-      </c>
-      <c r="K3" s="3">
-        <v>568924</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="3" customFormat="1" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="3">
-        <v>12500</v>
-      </c>
-      <c r="K4" s="3">
-        <v>102326</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="P4" s="3">
-        <v>4843</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="3" customFormat="1" ht="15.75">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J5" s="3">
-        <v>454134</v>
-      </c>
-      <c r="K5" s="3">
-        <v>15315126</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="N5" s="3">
-        <v>15451</v>
-      </c>
-      <c r="O5" s="3">
-        <v>15111111</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="3" customFormat="1">
-      <c r="A6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="3">
-        <v>1561</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>151</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" display="Ross@123"/>
-    <hyperlink ref="D2" r:id="rId3"/>
-    <hyperlink ref="E2" r:id="rId4"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="28.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="22.0" collapsed="true"/>
+    <col min="8" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -1327,17 +984,17 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
+      <c r="H1" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="19"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:18" ht="15.75">
@@ -1361,6 +1018,9 @@
       </c>
       <c r="G2" s="7" t="s">
         <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>157</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1395,6 +1055,9 @@
       <c r="G3" s="7" t="s">
         <v>43</v>
       </c>
+      <c r="H3" t="s">
+        <v>158</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1427,6 +1090,9 @@
       <c r="G4" s="7" t="s">
         <v>73</v>
       </c>
+      <c r="H4" t="s">
+        <v>158</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1459,6 +1125,9 @@
       <c r="G5" s="7" t="s">
         <v>74</v>
       </c>
+      <c r="H5" t="s">
+        <v>158</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1491,6 +1160,9 @@
       <c r="G6" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="H6" t="s">
+        <v>158</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1523,6 +1195,9 @@
       <c r="G7" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="H7" t="s">
+        <v>158</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1555,6 +1230,9 @@
       <c r="G8" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="H8" t="s">
+        <v>158</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1585,6 +1263,9 @@
         <v>90</v>
       </c>
       <c r="G9" s="3"/>
+      <c r="H9" t="s">
+        <v>158</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1617,6 +1298,9 @@
       <c r="G10" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="H10" t="s">
+        <v>158</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -1649,6 +1333,9 @@
       <c r="G11" s="7" t="s">
         <v>76</v>
       </c>
+      <c r="H11" t="s">
+        <v>157</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1681,6 +1368,9 @@
       <c r="G12" s="7" t="s">
         <v>77</v>
       </c>
+      <c r="H12" t="s">
+        <v>157</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -1713,6 +1403,9 @@
       <c r="G13" s="7" t="s">
         <v>79</v>
       </c>
+      <c r="H13" t="s">
+        <v>157</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -1745,6 +1438,9 @@
       <c r="G14" s="7" t="s">
         <v>78</v>
       </c>
+      <c r="H14" t="s">
+        <v>158</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -1777,6 +1473,9 @@
       <c r="G15" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="H15" t="s">
+        <v>158</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1801,6 +1500,9 @@
         <v>85</v>
       </c>
       <c r="G16" s="3"/>
+      <c r="H16" t="s">
+        <v>158</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1832,6 +1534,9 @@
       </c>
       <c r="G17" s="7" t="s">
         <v>81</v>
+      </c>
+      <c r="H17" t="s">
+        <v>158</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1872,946 +1577,443 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="9.140625" style="1"/>
-    <col min="8" max="9" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="9.140625" style="1" collapsed="1"/>
-    <col min="14" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="18" width="9.140625" style="1" collapsed="1"/>
-    <col min="19" max="25" width="9.140625" style="1"/>
-    <col min="26" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" style="1" width="23.140625" collapsed="true"/>
+    <col min="3" max="6" style="1" width="9.140625" collapsed="true"/>
+    <col min="7" max="8" bestFit="true" customWidth="true" style="1" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
+    <col min="10" max="10" style="1" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="15" width="31.85546875" collapsed="true"/>
+    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
+    <col min="13" max="26" style="1" width="9.140625" collapsed="true"/>
+    <col min="27" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+    <row r="1" spans="1:12">
+      <c r="A1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>124</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>112</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>72</v>
+        <v>96</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>600117</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3">
+        <v>52643</v>
+      </c>
+      <c r="J2" s="3">
+        <v>852</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I3" s="3">
+        <v>125</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A4"/>
+      <c r="B4" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="3">
+        <v>12500</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="J2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="L4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" customHeight="1">
+      <c r="A5" t="s">
         <v>101</v>
       </c>
-      <c r="P2" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" s="3">
-        <v>568924</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="3">
-        <v>125</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" s="3">
-        <v>12500</v>
-      </c>
-      <c r="K4" s="3">
-        <v>102326</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>15315126</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="G5" s="3">
+        <v>15451</v>
+      </c>
+      <c r="H5" s="3">
+        <v>15111111</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J5" s="3">
-        <v>454134</v>
-      </c>
-      <c r="K5" s="3">
-        <v>15315126</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N5" s="3">
-        <v>15451</v>
-      </c>
-      <c r="O5" s="3">
-        <v>15111111</v>
-      </c>
-      <c r="P5" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="Q5" s="3"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>143</v>
+      <c r="G6" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="I6" s="3">
         <v>1561</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="J6" s="3">
         <v>151</v>
       </c>
+      <c r="K6" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43535</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4547658</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1561</v>
+      </c>
+      <c r="J7" s="3">
+        <v>151</v>
+      </c>
+      <c r="K7" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L7" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
-    <hyperlink ref="E4" r:id="rId8"/>
-    <hyperlink ref="E5" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3:S6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="9" width="23.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="13" width="9.140625" style="1" collapsed="1"/>
-    <col min="14" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="31.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.140625" style="1" collapsed="1"/>
-    <col min="18" max="18" width="24.85546875" style="15" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="21.7109375" style="15" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.7109375" style="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.5703125" style="15" customWidth="1" collapsed="1"/>
-    <col min="22" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="15" width="24.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="15" width="29.5703125" collapsed="true"/>
+    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
+    <col min="6" max="22" style="1" width="9.140625" collapsed="true"/>
+    <col min="23" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45">
+      <c r="A2" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45">
+      <c r="A3" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45">
+      <c r="A4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45">
+      <c r="A6" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="R1" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="U1" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="30">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J2" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K2" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P2" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>852</v>
-      </c>
-      <c r="R2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="15" t="s">
+      <c r="E7" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45">
+      <c r="A8" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="45">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K3" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P3" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>852</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="S3" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U3" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="45">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K4" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P4" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>852</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="45">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J5" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K5" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P5" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>852</v>
-      </c>
-      <c r="R5" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="45">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J6" s="3">
-        <v>10000</v>
-      </c>
-      <c r="K6" s="3">
-        <v>600117</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="P6" s="3">
-        <v>52643</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>852</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>154</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="U6" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:21" ht="15.75">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" ht="15.75">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:21" ht="15.75">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="1:21" ht="15.75">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:21" ht="15.75">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:21" ht="15.75">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:21" ht="15.75">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75">
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75">
-      <c r="F24" s="14"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75">
-      <c r="F25" s="14"/>
+      <c r="F8" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="D4" r:id="rId4"/>
-    <hyperlink ref="D5" r:id="rId5"/>
-    <hyperlink ref="D6" r:id="rId6"/>
-    <hyperlink ref="E3" r:id="rId7"/>
-    <hyperlink ref="E4" r:id="rId8"/>
-    <hyperlink ref="E5" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Functional_Testing/TestDatas/ProviderRegisterDatas.xlsx
+++ b/Functional_Testing/TestDatas/ProviderRegisterDatas.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16395" windowHeight="2715" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Partner Details" sheetId="6" r:id="rId1"/>
     <sheet name="Organization Details" sheetId="2" r:id="rId2"/>
     <sheet name="Services Details" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J6"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
   <si>
     <t>FNAME</t>
   </si>
@@ -946,7 +942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1334,7 +1330,7 @@
         <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -1369,7 +1365,7 @@
         <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1581,7 +1577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -1593,9 +1589,7 @@
     <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="31.140625" collapsed="true"/>
     <col min="10" max="10" style="1" width="9.140625" collapsed="true"/>
     <col min="11" max="11" customWidth="true" style="15" width="31.85546875" collapsed="true"/>
-    <col min="12" max="12" style="1" width="9.140625" collapsed="true"/>
-    <col min="13" max="26" style="1" width="9.140625" collapsed="true"/>
-    <col min="27" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1857,7 +1851,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1866,9 +1860,7 @@
     <col min="2" max="2" customWidth="true" style="15" width="21.7109375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="15" width="24.5703125" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="15" width="29.5703125" collapsed="true"/>
-    <col min="5" max="5" style="1" width="9.140625" collapsed="true"/>
-    <col min="6" max="22" style="1" width="9.140625" collapsed="true"/>
-    <col min="23" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="5" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1902,7 +1894,7 @@
         <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
         <v>157</v>

--- a/Functional_Testing/TestDatas/ProviderRegisterDatas.xlsx
+++ b/Functional_Testing/TestDatas/ProviderRegisterDatas.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="161">
   <si>
     <t>FNAME</t>
   </si>
@@ -1400,7 +1400,7 @@
         <v>79</v>
       </c>
       <c r="H13" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
